--- a/biology/Histoire de la zoologie et de la botanique/Amotz_Zahavi/Amotz_Zahavi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Amotz_Zahavi/Amotz_Zahavi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amotz Zahavi (né le 14 août 1928 à Petah Tikva et mort le 12 mai 2017 à Tel Aviv[1]) est un ornithologue israélien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amotz Zahavi (né le 14 août 1928 à Petah Tikva et mort le 12 mai 2017 à Tel Aviv) est un ornithologue israélien.
 Il est spécialisé dans la biologie de l'évolution.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1975, Amotz Zahavi a donné une explication au comportement de certaines femelles d'oiseaux qui choisissent les mâles avec le plus lourd handicap ornemental (très longues plumes, par exemple). D'après sa théorie, appelée « théorie du handicap », les femelles préfèrent précisément ces mâles, car ils ne pourraient survivre  à leur handicap s'ils ne disposaient pas de gènes supérieurs à ceux des mâles « normaux ».
 </t>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ward P. &amp; Zahavi A. (1973) The importance of certain assemblages of birds as 'information centres' for food finding. Ibis, 115 :517–534.
 Zahavi A. (1975) Mate selection - a selection for a handicap. J. Theor Biol. 53 : 205–214.
